--- a/GANTT CHART - LSR - Tiger Takeoff.xlsx
+++ b/GANTT CHART - LSR - Tiger Takeoff.xlsx
@@ -674,7 +674,7 @@
   <dimension ref="C3:K24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="106" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.45"/>
